--- a/18/After_Soc_EEH2.xlsx
+++ b/18/After_Soc_EEH2.xlsx
@@ -17,12 +17,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+  <si>
+    <t>0</t>
+  </si>
   <si>
     <t>ГЗ</t>
   </si>
   <si>
     <t>ГЗ_end</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>Contr_end</t>
@@ -431,142 +464,145 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:46">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1" t="n">
         <v>2</v>
       </c>
-      <c r="I1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J1" t="n">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="n">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="n">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="n">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="n">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="n">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" t="n">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" t="n">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" t="n">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" t="n">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" t="n">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="U1" t="n">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="V1" t="n">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="W1" t="n">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="X1" t="n">
+      <c r="T1" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" t="n">
+      <c r="U1" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD1" t="n">
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" t="n">
+      <c r="AA1" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" t="n">
+      <c r="AB1" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" t="n">
+      <c r="AC1" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" t="n">
+      <c r="AD1" t="s">
         <v>5</v>
       </c>
-      <c r="AI1" t="n">
+      <c r="AE1" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" t="n">
+      <c r="AF1" t="s">
         <v>6</v>
       </c>
-      <c r="AK1" t="n">
+      <c r="AG1" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" t="n">
+      <c r="AH1" t="s">
         <v>7</v>
       </c>
-      <c r="AM1" t="n">
+      <c r="AI1" t="s">
         <v>7</v>
       </c>
-      <c r="AN1" t="n">
+      <c r="AJ1" t="s">
         <v>8</v>
       </c>
-      <c r="AO1" t="n">
+      <c r="AK1" t="s">
         <v>8</v>
       </c>
-      <c r="AP1" t="n">
+      <c r="AL1" t="s">
         <v>9</v>
       </c>
-      <c r="AQ1" t="n">
+      <c r="AM1" t="s">
         <v>9</v>
       </c>
-      <c r="AR1" t="n">
+      <c r="AN1" t="s">
         <v>10</v>
       </c>
-      <c r="AS1" t="n">
+      <c r="AO1" t="s">
         <v>10</v>
       </c>
+      <c r="AP1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>12</v>
+      </c>
       <c r="AT1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:46">
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
         <v>0.7552376137089437</v>
@@ -703,7 +739,7 @@
     </row>
     <row r="3" spans="1:46">
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
         <v>0.1918058376502241</v>
@@ -840,7 +876,7 @@
     </row>
     <row r="4" spans="1:46">
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>0.0734985148138905</v>
@@ -977,7 +1013,7 @@
     </row>
     <row r="5" spans="1:46">
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
         <v>0.321578971832772</v>
@@ -1114,7 +1150,7 @@
     </row>
     <row r="6" spans="1:46">
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
         <v>0.8024929052740027</v>
@@ -1212,7 +1248,7 @@
     </row>
     <row r="7" spans="1:46">
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
         <v>0.08130873708732426</v>
@@ -1349,7 +1385,7 @@
     </row>
     <row r="8" spans="1:46">
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
         <v>0.1570321258555237</v>
@@ -1486,7 +1522,7 @@
     </row>
     <row r="9" spans="1:46">
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
         <v>0.2456453154285649</v>
@@ -1623,7 +1659,7 @@
     </row>
     <row r="10" spans="1:46">
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
         <v>0.1138275986521714</v>
@@ -1760,7 +1796,7 @@
     </row>
     <row r="11" spans="1:46">
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
         <v>0.3378912710759031</v>
@@ -1915,142 +1951,145 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:46">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1" t="n">
         <v>2</v>
       </c>
-      <c r="I1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J1" t="n">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="n">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="n">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="n">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="n">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="n">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" t="n">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" t="n">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" t="n">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" t="n">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" t="n">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="U1" t="n">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="V1" t="n">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="W1" t="n">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="X1" t="n">
+      <c r="T1" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" t="n">
+      <c r="U1" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD1" t="n">
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" t="n">
+      <c r="AA1" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" t="n">
+      <c r="AB1" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" t="n">
+      <c r="AC1" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" t="n">
+      <c r="AD1" t="s">
         <v>5</v>
       </c>
-      <c r="AI1" t="n">
+      <c r="AE1" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" t="n">
+      <c r="AF1" t="s">
         <v>6</v>
       </c>
-      <c r="AK1" t="n">
+      <c r="AG1" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" t="n">
+      <c r="AH1" t="s">
         <v>7</v>
       </c>
-      <c r="AM1" t="n">
+      <c r="AI1" t="s">
         <v>7</v>
       </c>
-      <c r="AN1" t="n">
+      <c r="AJ1" t="s">
         <v>8</v>
       </c>
-      <c r="AO1" t="n">
+      <c r="AK1" t="s">
         <v>8</v>
       </c>
-      <c r="AP1" t="n">
+      <c r="AL1" t="s">
         <v>9</v>
       </c>
-      <c r="AQ1" t="n">
+      <c r="AM1" t="s">
         <v>9</v>
       </c>
-      <c r="AR1" t="n">
+      <c r="AN1" t="s">
         <v>10</v>
       </c>
-      <c r="AS1" t="n">
+      <c r="AO1" t="s">
         <v>10</v>
       </c>
+      <c r="AP1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>12</v>
+      </c>
       <c r="AT1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:46">
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
         <v>5.44093093358661</v>
@@ -2187,7 +2226,7 @@
     </row>
     <row r="3" spans="1:46">
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
         <v>9.465336837742431</v>
@@ -2324,7 +2363,7 @@
     </row>
     <row r="4" spans="1:46">
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>10.02916059462807</v>
@@ -2461,7 +2500,7 @@
     </row>
     <row r="5" spans="1:46">
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
         <v>9.399091905091915</v>
@@ -2598,7 +2637,7 @@
     </row>
     <row r="6" spans="1:46">
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
         <v>6.088916353264385</v>
@@ -2696,7 +2735,7 @@
     </row>
     <row r="7" spans="1:46">
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
         <v>10.2278218600739</v>
@@ -2833,7 +2872,7 @@
     </row>
     <row r="8" spans="1:46">
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
         <v>9.208835949913279</v>
@@ -2970,7 +3009,7 @@
     </row>
     <row r="9" spans="1:46">
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
         <v>8.642494654831218</v>
@@ -3107,7 +3146,7 @@
     </row>
     <row r="10" spans="1:46">
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
         <v>9.756518950286832</v>
@@ -3244,7 +3283,7 @@
     </row>
     <row r="11" spans="1:46">
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
         <v>9.315026933091211</v>
@@ -3399,253 +3438,256 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:46">
-      <c r="C1" s="1" t="n">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H1" t="n">
         <v>2</v>
       </c>
-      <c r="I1" t="n">
-        <v>2</v>
-      </c>
-      <c r="J1" t="n">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="n">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" t="n">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" t="n">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="N1" t="n">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" t="n">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" t="n">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" t="n">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="R1" t="n">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
-      <c r="S1" t="n">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" t="n">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="U1" t="n">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="V1" t="n">
+      <c r="R1" t="s">
         <v>9</v>
       </c>
-      <c r="W1" t="n">
+      <c r="S1" t="s">
         <v>9</v>
       </c>
-      <c r="X1" t="n">
+      <c r="T1" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" t="n">
+      <c r="U1" t="s">
         <v>10</v>
       </c>
-      <c r="Z1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA1" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD1" t="n">
+      <c r="V1" t="s">
+        <v>11</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
         <v>3</v>
       </c>
-      <c r="AE1" t="n">
+      <c r="AA1" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" t="n">
+      <c r="AB1" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" t="n">
+      <c r="AC1" t="s">
         <v>4</v>
       </c>
-      <c r="AH1" t="n">
+      <c r="AD1" t="s">
         <v>5</v>
       </c>
-      <c r="AI1" t="n">
+      <c r="AE1" t="s">
         <v>5</v>
       </c>
-      <c r="AJ1" t="n">
+      <c r="AF1" t="s">
         <v>6</v>
       </c>
-      <c r="AK1" t="n">
+      <c r="AG1" t="s">
         <v>6</v>
       </c>
-      <c r="AL1" t="n">
+      <c r="AH1" t="s">
         <v>7</v>
       </c>
-      <c r="AM1" t="n">
+      <c r="AI1" t="s">
         <v>7</v>
       </c>
-      <c r="AN1" t="n">
+      <c r="AJ1" t="s">
         <v>8</v>
       </c>
-      <c r="AO1" t="n">
+      <c r="AK1" t="s">
         <v>8</v>
       </c>
-      <c r="AP1" t="n">
+      <c r="AL1" t="s">
         <v>9</v>
       </c>
-      <c r="AQ1" t="n">
+      <c r="AM1" t="s">
         <v>9</v>
       </c>
-      <c r="AR1" t="n">
+      <c r="AN1" t="s">
         <v>10</v>
       </c>
-      <c r="AS1" t="n">
+      <c r="AO1" t="s">
         <v>10</v>
       </c>
+      <c r="AP1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>12</v>
+      </c>
       <c r="AT1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:46">
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>0.744841893731735</v>
+        <v>0.7448418937317344</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7113123052605016</v>
+        <v>0.7113123052605018</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7421783300158467</v>
+        <v>0.7421783300158472</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7191057854196304</v>
+        <v>0.7191057854196302</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7467301469271935</v>
+        <v>0.7467301469271931</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7047273655344387</v>
+        <v>0.704727365534439</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7174441874565313</v>
+        <v>0.7174441874565315</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7541836104284413</v>
+        <v>0.7541836104284414</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7664018176538695</v>
+        <v>0.7664018176538693</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7059280981389866</v>
+        <v>0.7059280981389865</v>
       </c>
       <c r="M2" t="n">
         <v>0.6844551360449278</v>
       </c>
       <c r="N2" t="n">
-        <v>0.6981727329600063</v>
+        <v>0.6981727329600065</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6742390089804485</v>
+        <v>0.6742390089804486</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6753429943339205</v>
+        <v>0.6753429943339213</v>
       </c>
       <c r="Q2" t="n">
         <v>0.71594414565658</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7094838897581421</v>
+        <v>0.7094838897581424</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6968476846451034</v>
+        <v>0.6968476846451035</v>
       </c>
       <c r="T2" t="n">
-        <v>0.7168349838452791</v>
+        <v>0.716834983845279</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7437530912256424</v>
+        <v>0.7437530912256426</v>
       </c>
       <c r="V2" t="n">
-        <v>0.749665456134613</v>
+        <v>0.7496654561346127</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6638783999288452</v>
+        <v>0.6638783999288446</v>
       </c>
       <c r="X2" t="n">
-        <v>0.6895144773754098</v>
+        <v>0.6895144773754106</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.7564830735120284</v>
+        <v>0.7564830735120283</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.7121385786638932</v>
+        <v>0.7121385786638934</v>
       </c>
       <c r="AA2" t="n">
         <v>0.7225894088390686</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.7159254841960208</v>
+        <v>0.7159254841960209</v>
       </c>
       <c r="AC2" t="n">
         <v>0.7080218065259176</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.737101321740152</v>
+        <v>0.7371013217401524</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.7569545401734862</v>
+        <v>0.7569545401734861</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.7560181669124096</v>
+        <v>0.7560181669124101</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.7359757770742296</v>
+        <v>0.7359757770742297</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.7297454311564564</v>
+        <v>0.7297454311564562</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.7535514841768015</v>
+        <v>0.7535514841768018</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.7539844544761242</v>
+        <v>0.7539844544761244</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.724035857801398</v>
+        <v>0.7240358578013985</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.7038195543731558</v>
+        <v>0.7038195543731559</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.7509484782990082</v>
+        <v>0.750948478299008</v>
       </c>
       <c r="AN2" t="n">
         <v>0.7275322764004</v>
@@ -3654,191 +3696,191 @@
         <v>0.7228379435595964</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.7149908493597883</v>
+        <v>0.7149908493597879</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.7419979078460178</v>
+        <v>0.741997907846018</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.6944565973614705</v>
+        <v>0.694456597361471</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.7573878163697714</v>
+        <v>0.7573878163697717</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.7495784965279101</v>
+        <v>0.7495784965279094</v>
       </c>
     </row>
     <row r="3" spans="1:46">
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6974566281270341</v>
+        <v>0.6974566281270335</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7143957296491742</v>
+        <v>0.7143957296491747</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7878640249885036</v>
+        <v>0.7878640249885034</v>
       </c>
       <c r="F3" t="n">
         <v>0.7008271632812426</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6413983718758109</v>
+        <v>0.6413983718758118</v>
       </c>
       <c r="H3" t="n">
-        <v>0.674520303524501</v>
+        <v>0.6745203035245018</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7380473411046922</v>
+        <v>0.7380473411046919</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7159704865222311</v>
+        <v>0.7159704865222313</v>
       </c>
       <c r="K3" t="n">
-        <v>0.713040182272249</v>
+        <v>0.7130401822722493</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7160102297370683</v>
+        <v>0.7160102297370681</v>
       </c>
       <c r="M3" t="n">
         <v>0.7185738450135198</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6696872955642834</v>
+        <v>0.6696872955642835</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7699021781306168</v>
+        <v>0.7699021781306167</v>
       </c>
       <c r="P3" t="n">
-        <v>0.7039228680493667</v>
+        <v>0.703922868049367</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.707509113426845</v>
+        <v>0.7075091134268452</v>
       </c>
       <c r="R3" t="n">
-        <v>0.7521954257180039</v>
+        <v>0.7521954257180037</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6516923665093396</v>
+        <v>0.6516923665093401</v>
       </c>
       <c r="T3" t="n">
-        <v>0.7005097920237078</v>
+        <v>0.7005097920237082</v>
       </c>
       <c r="U3" t="n">
-        <v>0.7513424537855535</v>
+        <v>0.7513424537855533</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6311357847399273</v>
+        <v>0.6311357847399275</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6329701341523426</v>
+        <v>0.6329701341523428</v>
       </c>
       <c r="X3" t="n">
-        <v>0.705671127240594</v>
+        <v>0.7056711272405941</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.7069293792388176</v>
+        <v>0.7069293792388178</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.6441324138162167</v>
+        <v>0.644132413816216</v>
       </c>
       <c r="AA3" t="n">
         <v>0.7264193902798708</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.7017947243045943</v>
+        <v>0.701794724304595</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.7620824980031965</v>
+        <v>0.7620824980031958</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.631669244803578</v>
+        <v>0.6316692448035779</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.655981629968733</v>
+        <v>0.6559816299687325</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.6649325393219806</v>
+        <v>0.6649325393219807</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.6378760210755565</v>
+        <v>0.6378760210755564</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.6875485874682215</v>
+        <v>0.6875485874682219</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.6756176879452687</v>
+        <v>0.6756176879452689</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.7503884654569604</v>
+        <v>0.7503884654569607</v>
       </c>
       <c r="AK3" t="n">
         <v>0.6656246473323381</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.6847575187695525</v>
+        <v>0.6847575187695526</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.7638528824263642</v>
+        <v>0.7638528824263645</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.7055057227978978</v>
+        <v>0.7055057227978976</v>
       </c>
       <c r="AO3" t="n">
         <v>0.6968552259944049</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.676010572024503</v>
+        <v>0.6760105720245024</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.7450551033942284</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.7081152625017568</v>
+        <v>0.7081152625017577</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.7554498311739981</v>
+        <v>0.755449831173998</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.7175577389878743</v>
+        <v>0.717557738987874</v>
       </c>
     </row>
     <row r="4" spans="1:46">
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>0.6064686717222153</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5842583999318491</v>
+        <v>0.5842583999318492</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7168582125129784</v>
+        <v>0.7168582125129791</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7191464428033822</v>
+        <v>0.7191464428033826</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7216175113820683</v>
+        <v>0.7216175113820681</v>
       </c>
       <c r="H4" t="n">
         <v>0.7010524236890677</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7293234590616724</v>
+        <v>0.7293234590616725</v>
       </c>
       <c r="J4" t="n">
         <v>0.5918949496983517</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6361757402626069</v>
+        <v>0.6361757402626071</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6936110808950376</v>
+        <v>0.6936110808950372</v>
       </c>
       <c r="M4" t="n">
         <v>0.6474671559154109</v>
@@ -3850,22 +3892,22 @@
         <v>0.709898509235064</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7381435206075166</v>
+        <v>0.7381435206075171</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6620635071056029</v>
+        <v>0.662063507105603</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7635957636542695</v>
+        <v>0.7635957636542694</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7038908627681256</v>
+        <v>0.7038908627681264</v>
       </c>
       <c r="T4" t="n">
         <v>0.5997381812832121</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7500606255287752</v>
+        <v>0.7500606255287743</v>
       </c>
       <c r="V4" t="n">
         <v>0.7572868936648024</v>
@@ -3874,55 +3916,55 @@
         <v>0.6502798427349031</v>
       </c>
       <c r="X4" t="n">
-        <v>0.7351543816752166</v>
+        <v>0.7351543816752169</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.7442002567072946</v>
+        <v>0.7442002567072952</v>
       </c>
       <c r="Z4" t="n">
         <v>0.6962683958947616</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.7879079074040665</v>
+        <v>0.7879079074040662</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.7586538584467751</v>
+        <v>0.7586538584467756</v>
       </c>
       <c r="AC4" t="n">
         <v>0.6676736895306403</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.5946078110515793</v>
+        <v>0.5946078110515792</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.7420993815620622</v>
+        <v>0.7420993815620618</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.7210281626136238</v>
+        <v>0.7210281626136239</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.6895876485326133</v>
+        <v>0.6895876485326131</v>
       </c>
       <c r="AH4" t="n">
         <v>0.7221062744128898</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.7665454662192768</v>
+        <v>0.7665454662192771</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.7560491147408488</v>
+        <v>0.7560491147408497</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.7349169023587787</v>
+        <v>0.7349169023587784</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.6336880413143631</v>
+        <v>0.6336880413143632</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.7301881567487528</v>
+        <v>0.7301881567487533</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.6242838634767689</v>
+        <v>0.624283863476769</v>
       </c>
       <c r="AO4" t="n">
         <v>0.7646486727108646</v>
@@ -3931,331 +3973,331 @@
         <v>0.6493943626691573</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.6564415773981032</v>
+        <v>0.6564415773981034</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.7498803764004204</v>
+        <v>0.7498803764004208</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.7415075510291406</v>
+        <v>0.7415075510291403</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.759150985792128</v>
+        <v>0.7591509857921271</v>
       </c>
     </row>
     <row r="5" spans="1:46">
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7412955237861159</v>
+        <v>0.7412955237861163</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6772639940597244</v>
+        <v>0.6772639940597245</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7694505174300349</v>
+        <v>0.7694505174300356</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6863638547191482</v>
+        <v>0.6863638547191484</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7529821545680235</v>
+        <v>0.7529821545680239</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7684605115812236</v>
+        <v>0.768460511581224</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7364258482386034</v>
+        <v>0.7364258482386032</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7743336148274932</v>
+        <v>0.7743336148274933</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7322005964992913</v>
+        <v>0.732200596499291</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7297903213951821</v>
+        <v>0.7297903213951822</v>
       </c>
       <c r="M5" t="n">
         <v>0.7636047661060384</v>
       </c>
       <c r="N5" t="n">
-        <v>0.7205722886025443</v>
+        <v>0.720572288602544</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6780082764537751</v>
+        <v>0.6780082764537753</v>
       </c>
       <c r="P5" t="n">
         <v>0.6946832309268375</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.6866694376222627</v>
+        <v>0.6866694376222628</v>
       </c>
       <c r="R5" t="n">
         <v>0.6874452086790954</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7701480907557386</v>
+        <v>0.7701480907557388</v>
       </c>
       <c r="T5" t="n">
-        <v>0.7497740614116081</v>
+        <v>0.749774061411608</v>
       </c>
       <c r="U5" t="n">
         <v>0.7430902211347804</v>
       </c>
       <c r="V5" t="n">
-        <v>0.7813025964460423</v>
+        <v>0.7813025964460421</v>
       </c>
       <c r="W5" t="n">
-        <v>0.7179334691895597</v>
+        <v>0.7179334691895594</v>
       </c>
       <c r="X5" t="n">
-        <v>0.7667035707388348</v>
+        <v>0.7667035707388344</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.7466207271800394</v>
+        <v>0.7466207271800399</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.7541665727000164</v>
+        <v>0.7541665727000167</v>
       </c>
       <c r="AA5" t="n">
         <v>0.7258718036756524</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.7246335805303648</v>
+        <v>0.724633580530365</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.7250335390259746</v>
+        <v>0.7250335390259749</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.7323389217680655</v>
+        <v>0.7323389217680661</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.7213408246671995</v>
+        <v>0.7213408246671994</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.73120767099441</v>
+        <v>0.7312076709944101</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.7190676504451362</v>
+        <v>0.719067650445136</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.7349364567250779</v>
+        <v>0.7349364567250781</v>
       </c>
       <c r="AI5" t="n">
         <v>0.7371880389418117</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.7428974653516105</v>
+        <v>0.7428974653516102</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.7635923628112953</v>
+        <v>0.7635923628112943</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.7319999482865915</v>
+        <v>0.7319999482865921</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.7922474852891881</v>
+        <v>0.7922474852891889</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.7092370298294318</v>
+        <v>0.7092370298294312</v>
       </c>
       <c r="AO5" t="n">
         <v>0.7726623606456282</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.7011598821479891</v>
+        <v>0.7011598821479895</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.7212941984894097</v>
+        <v>0.7212941984894098</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.7542984744653488</v>
+        <v>0.754298474465349</v>
       </c>
       <c r="AS5" t="n">
         <v>0.7181712323868729</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.7123302293605296</v>
+        <v>0.7123302293605297</v>
       </c>
     </row>
     <row r="6" spans="1:46">
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7679300994207233</v>
+        <v>0.7679300994207241</v>
       </c>
       <c r="D6" t="n">
-        <v>0.771551954103854</v>
+        <v>0.7715519541038547</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6746892636519037</v>
+        <v>0.6746892636519041</v>
       </c>
       <c r="F6" t="n">
         <v>0.7372283171513315</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7549099541044338</v>
+        <v>0.7549099541044343</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7444647960008829</v>
+        <v>0.744464796000883</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7337131232517516</v>
+        <v>0.7337131232517514</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7878480068912502</v>
+        <v>0.7878480068912505</v>
       </c>
       <c r="K6" t="n">
         <v>0.7196433024309481</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7515607130295769</v>
+        <v>0.7515607130295765</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7248532765357557</v>
+        <v>0.7248532765357559</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6782785782012376</v>
+        <v>0.6782785782012372</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7483345961900657</v>
+        <v>0.7483345961900659</v>
       </c>
       <c r="P6" t="n">
-        <v>0.7630075762634804</v>
+        <v>0.7630075762634803</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.765410008891463</v>
+        <v>0.7654100088914632</v>
       </c>
       <c r="R6" t="n">
         <v>0.7158664170926426</v>
       </c>
       <c r="S6" t="n">
-        <v>0.7649421226977239</v>
+        <v>0.7649421226977241</v>
       </c>
       <c r="T6" t="n">
-        <v>0.7815318843324066</v>
+        <v>0.7815318843324069</v>
       </c>
       <c r="U6" t="n">
-        <v>0.771145961394915</v>
+        <v>0.7711459613949148</v>
       </c>
       <c r="V6" t="n">
-        <v>0.7700883362194288</v>
+        <v>0.7700883362194291</v>
       </c>
       <c r="W6" t="n">
         <v>0.7386037111135474</v>
       </c>
       <c r="X6" t="n">
-        <v>0.763593747565921</v>
+        <v>0.7635937475659208</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.7564782593967025</v>
+        <v>0.7564782593967029</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.7112466632747431</v>
+        <v>0.7112466632747432</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.6920108083258997</v>
+        <v>0.6920108083258999</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.7708475130353383</v>
+        <v>0.7708475130353385</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.7768261467859885</v>
+        <v>0.7768261467859886</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.7640596262556805</v>
+        <v>0.764059626255681</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.7807471855941592</v>
+        <v>0.7807471855941599</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.7579996613662401</v>
+        <v>0.7579996613662399</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.7102599686021264</v>
+        <v>0.710259968602126</v>
       </c>
     </row>
     <row r="7" spans="1:46">
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6996128835251995</v>
+        <v>0.6996128835251999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7355168318191401</v>
+        <v>0.7355168318191393</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7209689625699915</v>
+        <v>0.7209689625699918</v>
       </c>
       <c r="F7" t="n">
-        <v>0.791108794700548</v>
+        <v>0.7911087947005483</v>
       </c>
       <c r="G7" t="n">
         <v>0.7770651251065808</v>
       </c>
       <c r="H7" t="n">
-        <v>0.737596205721494</v>
+        <v>0.7375962057214944</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7867122685708773</v>
+        <v>0.7867122685708771</v>
       </c>
       <c r="J7" t="n">
         <v>0.7550762183508075</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6095896619379749</v>
+        <v>0.6095896619379751</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7589337650379121</v>
+        <v>0.7589337650379123</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7463944410091238</v>
+        <v>0.7463944410091239</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7697077152564801</v>
+        <v>0.7697077152564802</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7359593541590653</v>
+        <v>0.7359593541590654</v>
       </c>
       <c r="P7" t="n">
-        <v>0.7619922422642447</v>
+        <v>0.7619922422642451</v>
       </c>
       <c r="Q7" t="n">
         <v>0.7327426159079147</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7592920686724471</v>
+        <v>0.7592920686724468</v>
       </c>
       <c r="S7" t="n">
-        <v>0.743596190121532</v>
+        <v>0.7435961901215326</v>
       </c>
       <c r="T7" t="n">
         <v>0.7463096114482026</v>
       </c>
       <c r="U7" t="n">
-        <v>0.7448460290759179</v>
+        <v>0.7448460290759178</v>
       </c>
       <c r="V7" t="n">
-        <v>0.6787443578402236</v>
+        <v>0.678744357840224</v>
       </c>
       <c r="W7" t="n">
-        <v>0.7628684200414952</v>
+        <v>0.7628684200414951</v>
       </c>
       <c r="X7" t="n">
-        <v>0.72721117409043</v>
+        <v>0.7272111740904301</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.740484239417001</v>
+        <v>0.7404842394170014</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.7150928652474428</v>
+        <v>0.7150928652474424</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.7938542454587978</v>
+        <v>0.7938542454587981</v>
       </c>
       <c r="AB7" t="n">
         <v>0.8006859064486892</v>
@@ -4264,421 +4306,421 @@
         <v>0.7389199436239304</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.7550619707491656</v>
+        <v>0.7550619707491663</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.7383016539313834</v>
+        <v>0.7383016539313833</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.7185328579768222</v>
+        <v>0.7185328579768225</v>
       </c>
       <c r="AG7" t="n">
         <v>0.7461697399586575</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.687937686696646</v>
+        <v>0.6879376866966465</v>
       </c>
       <c r="AI7" t="n">
         <v>0.7360515591908868</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.7643728971098713</v>
+        <v>0.7643728971098721</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.7077569283078169</v>
+        <v>0.7077569283078167</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.7541170180111202</v>
+        <v>0.7541170180111204</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.7137019764036032</v>
+        <v>0.7137019764036034</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.764326715007727</v>
+        <v>0.7643267150077262</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.6946462335026808</v>
+        <v>0.6946462335026807</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.7484383151639221</v>
+        <v>0.7484383151639222</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.7800861051244178</v>
+        <v>0.7800861051244169</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.7507672149112437</v>
+        <v>0.7507672149112439</v>
       </c>
       <c r="AS7" t="n">
         <v>0.7288327121686899</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.7086952244200692</v>
+        <v>0.7086952244200687</v>
       </c>
     </row>
     <row r="8" spans="1:46">
       <c r="B8" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6466632849282165</v>
+        <v>0.6466632849282163</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6347227664366492</v>
+        <v>0.6347227664366498</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7778496737743337</v>
+        <v>0.7778496737743338</v>
       </c>
       <c r="F8" t="n">
         <v>0.6904116623021417</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6322608694117656</v>
+        <v>0.6322608694117653</v>
       </c>
       <c r="H8" t="n">
         <v>0.7888368354437288</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7479354739089142</v>
+        <v>0.7479354739089144</v>
       </c>
       <c r="J8" t="n">
-        <v>0.679010651652747</v>
+        <v>0.6790106516527472</v>
       </c>
       <c r="K8" t="n">
-        <v>0.748583034571123</v>
+        <v>0.7485830345711232</v>
       </c>
       <c r="L8" t="n">
         <v>0.7149743094154994</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6833634363201077</v>
+        <v>0.6833634363201074</v>
       </c>
       <c r="N8" t="n">
-        <v>0.7706386700034611</v>
+        <v>0.7706386700034605</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6959310692926975</v>
+        <v>0.6959310692926979</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7293096123599357</v>
+        <v>0.7293096123599364</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.6824007922289225</v>
+        <v>0.6824007922289226</v>
       </c>
       <c r="R8" t="n">
-        <v>0.7632691534005549</v>
+        <v>0.7632691534005547</v>
       </c>
       <c r="S8" t="n">
-        <v>0.6814092125323119</v>
+        <v>0.6814092125323125</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7247276701288949</v>
+        <v>0.7247276701288947</v>
       </c>
       <c r="U8" t="n">
         <v>0.7109132360439949</v>
       </c>
       <c r="V8" t="n">
-        <v>0.7775743775806172</v>
+        <v>0.7775743775806173</v>
       </c>
       <c r="W8" t="n">
-        <v>0.712472056603316</v>
+        <v>0.7124720566033163</v>
       </c>
       <c r="X8" t="n">
-        <v>0.7477578993393285</v>
+        <v>0.7477578993393281</v>
       </c>
       <c r="Y8" t="n">
         <v>0.733168948927168</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.7412825738312547</v>
+        <v>0.7412825738312541</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.7345409301852156</v>
+        <v>0.7345409301852153</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.704259742674597</v>
+        <v>0.7042597426745969</v>
       </c>
       <c r="AC8" t="n">
         <v>0.7217693540879511</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.7412170517536798</v>
+        <v>0.7412170517536799</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.7558891297421095</v>
+        <v>0.7558891297421096</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.7411266717851399</v>
+        <v>0.74112667178514</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.728605605821286</v>
+        <v>0.7286056058212856</v>
       </c>
       <c r="AH8" t="n">
         <v>0.7021692906635693</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.7196743197592714</v>
+        <v>0.7196743197592715</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.7332532474230644</v>
+        <v>0.7332532474230643</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.7093347723663826</v>
+        <v>0.7093347723663823</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.7247928731716282</v>
+        <v>0.7247928731716281</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.7320042650761686</v>
+        <v>0.7320042650761683</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.6557597654511187</v>
+        <v>0.655759765451119</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.7095207064199013</v>
+        <v>0.7095207064199016</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.7645874332630263</v>
+        <v>0.7645874332630259</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.7326409895928274</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.7386669390497894</v>
+        <v>0.7386669390497903</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.7687423025091221</v>
+        <v>0.7687423025091222</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.725917133698437</v>
+        <v>0.7259171336984358</v>
       </c>
     </row>
     <row r="9" spans="1:46">
       <c r="B9" s="1" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>0.686225618250072</v>
+        <v>0.6862256182500727</v>
       </c>
       <c r="D9" t="n">
         <v>0.7117317585279421</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7458362972132723</v>
+        <v>0.7458362972132729</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7414413517677387</v>
+        <v>0.7414413517677393</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7400186428098913</v>
+        <v>0.740018642809891</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8084314168337584</v>
+        <v>0.8084314168337589</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7445936791147878</v>
+        <v>0.7445936791147882</v>
       </c>
       <c r="J9" t="n">
         <v>0.7634980867900161</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7669962825943266</v>
+        <v>0.7669962825943262</v>
       </c>
       <c r="L9" t="n">
-        <v>0.712561153739445</v>
+        <v>0.7125611537394451</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7023877013385753</v>
+        <v>0.7023877013385754</v>
       </c>
       <c r="N9" t="n">
-        <v>0.7490990326580566</v>
+        <v>0.7490990326580562</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7317695048252408</v>
+        <v>0.7317695048252406</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7558686228410845</v>
+        <v>0.7558686228410847</v>
       </c>
       <c r="Q9" t="n">
         <v>0.6703315457324908</v>
       </c>
       <c r="R9" t="n">
-        <v>0.7216962005372589</v>
+        <v>0.7216962005372588</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7691930336940841</v>
+        <v>0.7691930336940848</v>
       </c>
       <c r="T9" t="n">
-        <v>0.7160299856100341</v>
+        <v>0.7160299856100339</v>
       </c>
       <c r="U9" t="n">
         <v>0.7749748855236902</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6846701183766746</v>
+        <v>0.6846701183766748</v>
       </c>
       <c r="W9" t="n">
-        <v>0.6480922762286617</v>
+        <v>0.6480922762286619</v>
       </c>
       <c r="X9" t="n">
-        <v>0.7137683836406863</v>
+        <v>0.7137683836406866</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.675713386189958</v>
+        <v>0.6757133861899584</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.7300644809905649</v>
+        <v>0.7300644809905651</v>
       </c>
       <c r="AA9" t="n">
         <v>0.756715181660446</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.7423130325383734</v>
+        <v>0.7423130325383732</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.6640667042126283</v>
+        <v>0.6640667042126284</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.6760734894712929</v>
+        <v>0.6760734894712934</v>
       </c>
       <c r="AE9" t="n">
         <v>0.7414488994275936</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.7442807081101811</v>
+        <v>0.744280708110181</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.6960041829719685</v>
+        <v>0.6960041829719688</v>
       </c>
       <c r="AH9" t="n">
         <v>0.7441321813713588</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.7096902444417805</v>
+        <v>0.7096902444417807</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.7631489707989954</v>
+        <v>0.7631489707989959</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.7135418875920602</v>
+        <v>0.7135418875920605</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.7810780962354157</v>
+        <v>0.7810780962354155</v>
       </c>
       <c r="AM9" t="n">
-        <v>0.7161374440021021</v>
+        <v>0.7161374440021018</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.7377025932908857</v>
+        <v>0.7377025932908858</v>
       </c>
       <c r="AO9" t="n">
         <v>0.7114458333062262</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.7704633456815265</v>
+        <v>0.770463345681527</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.7392355274119111</v>
+        <v>0.7392355274119112</v>
       </c>
       <c r="AR9" t="n">
-        <v>0.7426904317957294</v>
+        <v>0.7426904317957297</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.774000941506237</v>
+        <v>0.7740009415062364</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.762252484104156</v>
+        <v>0.762252484104154</v>
       </c>
     </row>
     <row r="10" spans="1:46">
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7218978476057258</v>
+        <v>0.7218978476057264</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6679508330227443</v>
+        <v>0.6679508330227447</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7807969823253155</v>
+        <v>0.7807969823253167</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7406513162193017</v>
+        <v>0.7406513162193012</v>
       </c>
       <c r="G10" t="n">
-        <v>0.7243245470341083</v>
+        <v>0.7243245470341082</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7461745056415167</v>
+        <v>0.7461745056415161</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6934494831048149</v>
+        <v>0.6934494831048148</v>
       </c>
       <c r="J10" t="n">
         <v>0.7648600248253843</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7394633984576956</v>
+        <v>0.7394633984576957</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7357834613503704</v>
+        <v>0.7357834613503702</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7332286835818207</v>
+        <v>0.7332286835818206</v>
       </c>
       <c r="N10" t="n">
-        <v>0.7471381113860803</v>
+        <v>0.74713811138608</v>
       </c>
       <c r="O10" t="n">
-        <v>0.696810703057448</v>
+        <v>0.6968107030574477</v>
       </c>
       <c r="P10" t="n">
-        <v>0.6462416118096714</v>
+        <v>0.6462416118096721</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6901371717912248</v>
+        <v>0.690137171791225</v>
       </c>
       <c r="R10" t="n">
-        <v>0.6236061234059811</v>
+        <v>0.623606123405981</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7318541509985537</v>
+        <v>0.7318541509985543</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7135223421568053</v>
+        <v>0.713522342156805</v>
       </c>
       <c r="U10" t="n">
         <v>0.6855429297470861</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6954717285123297</v>
+        <v>0.6954717285123295</v>
       </c>
       <c r="W10" t="n">
-        <v>0.7293384260026946</v>
+        <v>0.7293384260026947</v>
       </c>
       <c r="X10" t="n">
-        <v>0.7579753067863955</v>
+        <v>0.7579753067863956</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.7144869210988641</v>
+        <v>0.7144869210988642</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.7043451488285383</v>
+        <v>0.7043451488285378</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.6491248212624274</v>
+        <v>0.6491248212624273</v>
       </c>
       <c r="AB10" t="n">
         <v>0.6947131470497009</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.6947811425666183</v>
+        <v>0.6947811425666184</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.7223952341373122</v>
+        <v>0.7223952341373125</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.7038352990559456</v>
+        <v>0.7038352990559449</v>
       </c>
       <c r="AF10" t="n">
         <v>0.7194435055849775</v>
@@ -4687,66 +4729,66 @@
         <v>0.7096027563212096</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.7140656288535849</v>
+        <v>0.7140656288535852</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.7233403011579422</v>
+        <v>0.7233403011579418</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.729294015665684</v>
+        <v>0.7292940156656842</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.7280285165114846</v>
+        <v>0.7280285165114843</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.7148803305960045</v>
+        <v>0.7148803305960048</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.7445569927256905</v>
+        <v>0.7445569927256901</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.723263616344291</v>
+        <v>0.7232636163442903</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.7211495246292581</v>
+        <v>0.7211495246292587</v>
       </c>
       <c r="AP10" t="n">
         <v>0.7877404611078161</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.7617118882173859</v>
+        <v>0.761711888217386</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.7208261067632744</v>
+        <v>0.720826106763275</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.7450730313275938</v>
+        <v>0.7450730313275939</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.7391907086086229</v>
+        <v>0.7391907086086225</v>
       </c>
     </row>
     <row r="11" spans="1:46">
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6957955941951424</v>
+        <v>0.695795594195143</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6901627254930122</v>
+        <v>0.6901627254930119</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7210822281705774</v>
+        <v>0.7210822281705773</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7512107973206121</v>
+        <v>0.7512107973206119</v>
       </c>
       <c r="G11" t="n">
         <v>0.7529724714153996</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7372995599688984</v>
+        <v>0.7372995599688992</v>
       </c>
       <c r="I11" t="n">
         <v>0.7485640916321559</v>
@@ -4755,16 +4797,16 @@
         <v>0.7158657635722727</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7425642346908834</v>
+        <v>0.7425642346908832</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7427203477210979</v>
+        <v>0.7427203477210974</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7005188790619371</v>
+        <v>0.7005188790619368</v>
       </c>
       <c r="N11" t="n">
-        <v>0.6752289124374937</v>
+        <v>0.6752289124374941</v>
       </c>
       <c r="O11" t="n">
         <v>0.7102016040560718</v>
@@ -4773,94 +4815,94 @@
         <v>0.7870999247730026</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.7151344830414562</v>
+        <v>0.7151344830414565</v>
       </c>
       <c r="R11" t="n">
-        <v>0.7645083175266826</v>
+        <v>0.7645083175266825</v>
       </c>
       <c r="S11" t="n">
-        <v>0.6808019377379236</v>
+        <v>0.6808019377379235</v>
       </c>
       <c r="T11" t="n">
-        <v>0.6987218872263131</v>
+        <v>0.6987218872263133</v>
       </c>
       <c r="U11" t="n">
-        <v>0.720230699605158</v>
+        <v>0.7202306996051583</v>
       </c>
       <c r="V11" t="n">
-        <v>0.7075092609738275</v>
+        <v>0.7075092609738276</v>
       </c>
       <c r="W11" t="n">
         <v>0.7173014181779568</v>
       </c>
       <c r="X11" t="n">
-        <v>0.7238530252841117</v>
+        <v>0.7238530252841114</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.7655661264415837</v>
+        <v>0.7655661264415841</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.7601015027369343</v>
+        <v>0.7601015027369341</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.7181348662662201</v>
+        <v>0.7181348662662197</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.7386281567976268</v>
+        <v>0.7386281567976272</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.7141874870809308</v>
+        <v>0.7141874870809304</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.7293280204543475</v>
+        <v>0.7293280204543479</v>
       </c>
       <c r="AE11" t="n">
         <v>0.7331083947087113</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.6791665170103519</v>
+        <v>0.6791665170103516</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.6288405076713314</v>
+        <v>0.628840507671331</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.7661799913110279</v>
+        <v>0.7661799913110278</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.6762536181512048</v>
+        <v>0.6762536181512047</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.7008891238904599</v>
+        <v>0.7008891238904597</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.7238431677232854</v>
+        <v>0.7238431677232856</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.8110787183392396</v>
+        <v>0.8110787183392393</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.7811064287460078</v>
+        <v>0.7811064287460072</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.7529396188619314</v>
+        <v>0.7529396188619309</v>
       </c>
       <c r="AO11" t="n">
         <v>0.7275280191332738</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.7530279299306996</v>
+        <v>0.7530279299306992</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.6827876387283377</v>
+        <v>0.6827876387283378</v>
       </c>
       <c r="AR11" t="n">
         <v>0.7534128666390443</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.702745241209236</v>
+        <v>0.7027452412092358</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.7149400913816678</v>
+        <v>0.714940091381667</v>
       </c>
     </row>
   </sheetData>
